--- a/students/management/BBA(CA) -SY.xlsx
+++ b/students/management/BBA(CA) -SY.xlsx
@@ -457,37 +457,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-09</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -782,12 +782,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -842,12 +842,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -872,12 +872,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1067,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2057,12 +2057,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2237,12 +2237,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2282,12 +2282,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3672,12 +3672,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
